--- a/Checklist22CLC_310_169.xlsx
+++ b/Checklist22CLC_310_169.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ceo Nhy\Desktop\HCMUS\Y1_HK2\Programming_techniques\Lab\Game_Pikachu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E915FA-D1A6-4BB1-B0F2-D66EE68D1D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0A822F-DE07-47D2-AC1D-8366C9A71CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{F4936D47-F2DF-4695-AD00-2BA46D3CD9FF}"/>
   </bookViews>
@@ -117,12 +117,86 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{B988D998-7EC0-4096-BE78-FDD1234E06BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ceo Nhy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+50% 
+chưa ghép code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{66290C97-D4C0-45E3-BC2F-FA22FC1C9958}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ceo Nhy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{0598D992-DFEB-47D3-954F-EC8BA9E8E815}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ceo Nhy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+check L, check U unfinish yet
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
   <si>
     <t>Programming</t>
   </si>
@@ -367,12 +441,21 @@
   <si>
     <t>Thái Thị Kim Huyền</t>
   </si>
+  <si>
+    <t>Time Counter</t>
+  </si>
+  <si>
+    <t>Retrieve Coordinate</t>
+  </si>
+  <si>
+    <t>Life Limit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +549,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -643,6 +739,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC52301-1426-4450-A9CD-A5E9B7E3F7ED}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1012,25 +1110,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="23"/>
       <c r="H1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1143,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1065,7 +1163,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1181,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1199,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1217,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1235,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1155,15 +1253,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1175,13 +1273,13 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1297,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1315,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1333,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1253,7 +1351,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1271,10 +1369,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1283,7 +1381,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1303,7 +1401,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1321,10 +1419,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1431,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1349,7 +1447,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1461,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1396,13 +1494,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812683DD-01F4-40B7-9701-43B6FDA0E4A8}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.4140625" customWidth="1"/>
+    <col min="1" max="1" width="25.9140625" customWidth="1"/>
     <col min="2" max="2" width="27.4140625" customWidth="1"/>
     <col min="3" max="3" width="23.4140625" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
@@ -1455,40 +1553,40 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="6">
-        <v>22127169</v>
+        <v>22127310</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6">
@@ -1497,7 +1595,7 @@
       <c r="D9" s="6">
         <v>22127310</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="6">
@@ -1505,33 +1603,31 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>22127169</v>
+        <v>22127310</v>
       </c>
       <c r="D10" s="6">
-        <v>22127169</v>
+        <v>22127310</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
         <v>22127169</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6">
-        <v>22127310</v>
-      </c>
       <c r="D11" s="6">
-        <v>22127310</v>
+        <v>22127169</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
@@ -1541,8 +1637,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6">
@@ -1559,8 +1655,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6">
@@ -1573,12 +1669,12 @@
         <v>35</v>
       </c>
       <c r="F13" s="6">
-        <v>22127169</v>
+        <v>22127310</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="6">
@@ -1595,18 +1691,18 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="17">
@@ -1615,14 +1711,14 @@
       <c r="D16" s="17">
         <v>22127310</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="17">
@@ -1639,8 +1735,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="6">
@@ -1649,7 +1745,7 @@
       <c r="D18" s="6">
         <v>22127310</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="19" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="6">
@@ -1657,16 +1753,12 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="17">
-        <v>22127169</v>
-      </c>
-      <c r="D19" s="17">
-        <v>22127169</v>
-      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1675,8 +1767,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="6">
@@ -1685,16 +1777,16 @@
       <c r="D20" s="6">
         <v>22127169</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="6">
-        <v>22127310</v>
+        <v>22127169</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="6">
@@ -1707,26 +1799,26 @@
         <v>29</v>
       </c>
       <c r="F21" s="6">
-        <v>22127169</v>
+        <v>22127310</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="6">
-        <v>22127310</v>
+        <v>22127169</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6">
@@ -1743,16 +1835,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="6">
-        <v>22127310</v>
-      </c>
-      <c r="D24" s="6">
-        <v>22127310</v>
-      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1761,10 +1849,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1773,14 +1861,18 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="6">
+        <v>22127310</v>
+      </c>
+      <c r="D26" s="6">
+        <v>22127310</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1789,12 +1881,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="6">
+        <v>22127310</v>
+      </c>
+      <c r="D27" s="6">
+        <v>22127310</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1803,12 +1899,16 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C28" s="6">
+        <v>22127310</v>
+      </c>
+      <c r="D28" s="6">
+        <v>22127310</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
@@ -1910,22 +2010,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +2038,7 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1952,7 +2052,7 @@
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1964,7 +2064,7 @@
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +2076,7 @@
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1988,7 +2088,7 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2000,7 +2100,7 @@
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2012,15 +2112,15 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2028,13 +2128,13 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2046,7 +2146,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2058,7 +2158,7 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +2170,7 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2182,7 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2094,17 +2194,17 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2118,7 +2218,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
@@ -2130,17 +2230,17 @@
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2154,7 +2254,7 @@
       <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2266,7 @@
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
@@ -2194,15 +2294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010034B6E2273C17FE44AD906EF5FC655809" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2a6bca296fe962653b7c5a20e42cf30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="730dd6c1-e077-40c7-af4f-5cab2d3859cf" xmlns:ns4="814e4c33-d5ce-4759-82e0-a3745c9dd255" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="356b246bd2ca80319fee3a9a624ff01f" ns3:_="" ns4:_="">
     <xsd:import namespace="730dd6c1-e077-40c7-af4f-5cab2d3859cf"/>
@@ -2417,21 +2508,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78AFC9C-2671-4E37-B6D9-20C044D55103}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D3923E-7FC8-4694-BA66-10AD4B3B1B37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2450,7 +2542,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{863F6532-0036-4D95-B271-1CA3C58BD5C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -2465,4 +2557,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78AFC9C-2671-4E37-B6D9-20C044D55103}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Checklist22CLC_310_169.xlsx
+++ b/Checklist22CLC_310_169.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ceo Nhy\Desktop\HCMUS\Y1_HK2\Programming_techniques\Lab\Game_Pikachu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\PikachuGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0A822F-DE07-47D2-AC1D-8366C9A71CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB545A19-C4B1-4463-965C-B13CA5EAB43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{F4936D47-F2DF-4695-AD00-2BA46D3CD9FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F4936D47-F2DF-4695-AD00-2BA46D3CD9FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,7 +382,7 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -393,7 +393,7 @@
         <i/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -407,7 +407,7 @@
         <u/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,7 +417,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -428,7 +428,7 @@
         <i/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -459,7 +459,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -501,7 +501,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -510,7 +510,7 @@
       <u/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -518,7 +518,7 @@
       <i/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -526,7 +526,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -557,7 +557,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,25 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -736,11 +724,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,6 +764,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,35 +1086,35 @@
       <selection activeCell="F11" sqref="F11:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="19"/>
       <c r="H1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,8 +1128,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1162,8 +1148,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1180,8 +1166,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1198,8 +1184,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1216,8 +1202,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1234,8 +1220,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1252,16 +1238,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1273,13 +1259,13 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1296,8 +1282,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1314,8 +1300,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1332,8 +1318,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1336,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1368,11 +1354,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1380,8 +1366,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1400,8 +1386,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1418,11 +1404,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+    <row r="19" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1430,8 +1416,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1446,8 +1432,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1460,8 +1446,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1494,21 +1480,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812683DD-01F4-40B7-9701-43B6FDA0E4A8}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="76" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.9140625" customWidth="1"/>
-    <col min="2" max="2" width="27.4140625" customWidth="1"/>
-    <col min="3" max="3" width="23.4140625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.4140625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
@@ -1516,7 +1502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>45</v>
@@ -1525,7 +1511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +1522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -1547,46 +1533,46 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="6">
         <v>22127310</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6">
@@ -1595,16 +1581,16 @@
       <c r="D9" s="6">
         <v>22127310</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="30" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="6">
         <v>22127310</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6">
@@ -1618,9 +1604,9 @@
       </c>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6">
@@ -1636,9 +1622,9 @@
         <v>22127310</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6">
@@ -1654,9 +1640,9 @@
         <v>22127310</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6">
@@ -1672,9 +1658,9 @@
         <v>22127310</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="6">
@@ -1690,53 +1676,53 @@
         <v>22127169</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="17">
-        <v>22127310</v>
-      </c>
-      <c r="D16" s="17">
-        <v>22127310</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="C16" s="16">
+        <v>22127310</v>
+      </c>
+      <c r="D16" s="16">
+        <v>22127310</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="19" t="s">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>22127169</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>22127169</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="30" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="6">
         <v>22127169</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="6">
@@ -1745,30 +1731,34 @@
       <c r="D18" s="6">
         <v>22127310</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="6">
         <v>22127310</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="16">
+        <v>22127169</v>
+      </c>
+      <c r="D19" s="16">
+        <v>22127169</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="6">
         <v>22127169</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="6">
@@ -1777,16 +1767,16 @@
       <c r="D20" s="6">
         <v>22127169</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="30" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="6">
         <v>22127169</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="6">
@@ -1795,30 +1785,30 @@
       <c r="D21" s="6">
         <v>22127310</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="6">
         <v>22127310</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="2" t="s">
+    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="6">
         <v>22127169</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6">
@@ -1834,9 +1824,9 @@
         <v>22127310</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -1848,11 +1838,11 @@
         <v>22127169</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+    <row r="25" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1860,11 +1850,11 @@
         <v>22127169</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="6">
@@ -1880,9 +1870,9 @@
         <v>22127310</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19" t="s">
+    <row r="27" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="6">
@@ -1898,9 +1888,9 @@
         <v>22127169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="6">
@@ -1914,17 +1904,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1940,17 +1930,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.4140625" customWidth="1"/>
-    <col min="2" max="2" width="27.4140625" customWidth="1"/>
-    <col min="3" max="3" width="23.4140625" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="32.4140625" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
@@ -1958,7 +1948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>45</v>
@@ -1970,7 +1960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1987,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -2004,28 +1994,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
@@ -2037,8 +2027,8 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2051,8 +2041,8 @@
       </c>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -2063,8 +2053,8 @@
       </c>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -2075,8 +2065,8 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
@@ -2087,8 +2077,8 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2089,8 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
@@ -2111,16 +2101,16 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+    <row r="15" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2128,13 +2118,13 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
@@ -2145,8 +2135,8 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2157,8 +2147,8 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
@@ -2169,8 +2159,8 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2181,8 +2171,8 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2193,18 +2183,18 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
+    <row r="22" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2217,8 +2207,8 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
+    <row r="24" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
@@ -2229,18 +2219,18 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+    <row r="25" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2253,8 +2243,8 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,8 +2255,8 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
+    <row r="28" spans="1:6" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
@@ -2277,23 +2267,38 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010034B6E2273C17FE44AD906EF5FC655809" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2a6bca296fe962653b7c5a20e42cf30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="730dd6c1-e077-40c7-af4f-5cab2d3859cf" xmlns:ns4="814e4c33-d5ce-4759-82e0-a3745c9dd255" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="356b246bd2ca80319fee3a9a624ff01f" ns3:_="" ns4:_="">
     <xsd:import namespace="730dd6c1-e077-40c7-af4f-5cab2d3859cf"/>
@@ -2508,36 +2513,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D3923E-7FC8-4694-BA66-10AD4B3B1B37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78AFC9C-2671-4E37-B6D9-20C044D55103}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="730dd6c1-e077-40c7-af4f-5cab2d3859cf"/>
-    <ds:schemaRef ds:uri="814e4c33-d5ce-4759-82e0-a3745c9dd255"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2560,9 +2539,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C78AFC9C-2671-4E37-B6D9-20C044D55103}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D3923E-7FC8-4694-BA66-10AD4B3B1B37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="730dd6c1-e077-40c7-af4f-5cab2d3859cf"/>
+    <ds:schemaRef ds:uri="814e4c33-d5ce-4759-82e0-a3745c9dd255"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>